--- a/x_res/info.xlsx
+++ b/x_res/info.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dr.Ahmed\Projects\quran_view\x_res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\quran_view\x_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4BB17-C4E3-4280-9158-0530EB8ABB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618DBE6-245A-4B2E-90B7-CC981A3A43CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="870" windowWidth="25545" windowHeight="14115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="soras" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Key</t>
   </si>
@@ -37,6 +47,693 @@
   </si>
   <si>
     <t>Verses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Fatihah(The Opening)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Baqarah(The Cow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-‘Imran(The Family of Amran)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Nisa’(The Women)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ma’idah(The Food)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-An’am(The Cattle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-A’raf(The Elevated Places)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Anfal(Voluntary Gifts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Bara’at / At-Taubah(The Immunity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yunus(Jonah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hud(Hud)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yusuf(Joseph)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ar-Ra’d(The Thunder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ibrahim(Abraham)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Hijr(The Rock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Nahl(The Bee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bani Isra’il(The Israelites)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Kahf(The Cave)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maryam(Mary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ta Ha(Ta Ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Anbiya’(The Prophets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Hajj(The Pilgrimage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Mu’minun(The Believers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Nur(The Light)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Furqan(The Discrimination)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ash-Shu’ara’(The Poets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Naml(The Naml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Qasas(The Narrative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-‘Ankabut(The Spider)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ar-Rum(The Romans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luqman(Luqman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As-Sajdah(The Adoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ahzab(The Allies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Saba’(The Saba’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Fatir(The Originator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ya Sin(Ya Sin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As-Saffat(Those Ranging in Ranks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sad(Sad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az-Zumar(The Companies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Mu’min(The Believer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha Mim(Ha Mim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ash-Shura(Counsel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az-Zukhruf(Gold)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ad-Dukhan(The Drought)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Jathiyah(The Kneeling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ahqaf(The Sandhills)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muhammad(Muhammad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Fath(The Victory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Hujurat(The Apartments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qaf(Qaf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ad-Dhariyat(The Scatterers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Tur(The Mountain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Najm(The Star)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Qamar(The Moon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ar-Rahman(The Beneficent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Waqi’ah(The Event)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Hadid(Iron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Mujadilah(The Pleading Woman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Hashr(The Banishment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Mumtahanah(The Woman who is Examined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As-Saff(The Ranks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Jumu’ah(The Congregation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Munafiqun(The Hypocrites)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Taghabun(The Manifestation of Losses)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Talaq(Divorce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Tahrim(The Prohibition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Mulk(The Kingdom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Qalam(The Pen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Haqqah(The Sure Truth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ma’arij(The Ways of Ascent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nuh(Noah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Jinn(The Jinn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Muzzammil(The One Covering Himself)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Muddaththir(The One Wrapping Himself Up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Qiyamah(The Resurrection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Insan(The Man)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Mursalat(Those Sent Forth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Naba’(The Announcement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Nazi’at(Those Who Yearn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘Abasa(He Frowned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Takwir(The Folding Up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Infitar(The Cleaving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Tatfif(Default in Duty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Inshiqaq(The Bursting Asunder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Buruj(The Stars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Tariq(The Comer by Night)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-A’la(The Most High)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ghashiyah(The Overwhelming Event)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Fajr(The Daybreak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Balad(The City)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ash-Shams(The Sun)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Lail(The Night)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ad-Duha(The Brightness of the Day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Inshirah(The Expansion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Tin(The Fig)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-‘Alaq(The Clot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Qadr(The Majesty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Bayyinah(The Clear Evidence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Zilzal(The Shaking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-‘Adiyat(The Assaulters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Qari’ah(The Calamity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At-Takathur(The Abundance of Wealth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-‘Asr(The Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Humazah(The Slanderer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Fil(The Elephant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Quraish(The Quraish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ma’un(Acts of Kindness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Kauthar(The Abundance of Good)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Kafirun(The Disbelievers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Nasr(The Help)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Lahab(The Flame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Ikhlas(The Unity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Falaq(The Dawn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An-Nas(The Men)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -47,7 +744,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -354,7 +1051,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -376,16 +1073,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -401,7 +1098,7 @@
         <v>6236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -412,4 +1109,944 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09606690-4F1C-4CF8-AD0A-8F648277CB47}">
+  <dimension ref="A1:B115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:B115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>